--- a/appendix/mean_cohen_kappa.xlsx
+++ b/appendix/mean_cohen_kappa.xlsx
@@ -525,7 +525,7 @@
         <v>0.437</v>
       </c>
       <c r="G3" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="H3" t="n">
         <v>0.505</v>

--- a/appendix/mean_cohen_kappa.xlsx
+++ b/appendix/mean_cohen_kappa.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.267</v>
+        <v>0.274</v>
       </c>
       <c r="D5" t="n">
-        <v>0.39</v>
+        <v>0.403</v>
       </c>
       <c r="E5" t="n">
-        <v>0.433</v>
+        <v>0.443</v>
       </c>
       <c r="F5" t="n">
-        <v>0.477</v>
+        <v>0.488</v>
       </c>
       <c r="G5" t="n">
-        <v>0.538</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.535</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -618,29 +618,29 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.267</v>
+        <v>0.274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.39</v>
+        <v>0.403</v>
       </c>
       <c r="E7" t="n">
-        <v>0.433</v>
+        <v>0.443</v>
       </c>
       <c r="F7" t="n">
-        <v>0.479</v>
+        <v>0.488</v>
       </c>
       <c r="G7" t="n">
         <v>0.5590000000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         <v>0.303</v>
       </c>
       <c r="D8" t="n">
-        <v>0.489</v>
+        <v>0.508</v>
       </c>
       <c r="E8" t="n">
-        <v>0.553</v>
+        <v>0.549</v>
       </c>
       <c r="F8" t="n">
-        <v>0.587</v>
+        <v>0.576</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.64</v>
       </c>
       <c r="H8" t="n">
-        <v>0.645</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.293</v>
+        <v>0.256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.399</v>
+        <v>0.389</v>
       </c>
       <c r="D9" t="n">
-        <v>0.526</v>
+        <v>0.527</v>
       </c>
       <c r="E9" t="n">
         <v>0.5620000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.597</v>
+        <v>0.589</v>
       </c>
       <c r="G9" t="n">
-        <v>0.625</v>
+        <v>0.624</v>
       </c>
       <c r="H9" t="n">
-        <v>0.637</v>
+        <v>0.631</v>
       </c>
     </row>
   </sheetData>
